--- a/GameData.xlsx
+++ b/GameData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7895E2DD-BEF8-4ED1-B22B-D01254921EAD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,18 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
-    <t>升级价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验梯度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enemy_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,18 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩家Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器 Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人 Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enemy_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,23 +105,41 @@
   <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmg</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Weapon</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enemy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -155,7 +148,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -219,7 +212,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,57 +489,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="14" width="11.6640625" style="1"/>
+    <col min="1" max="14" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="3"/>
       <c r="E1" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -567,7 +560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -591,7 +584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -615,7 +608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -639,7 +632,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -663,7 +656,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -687,7 +680,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -711,7 +704,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -729,7 +722,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -747,7 +740,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -765,9 +758,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -776,38 +769,38 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B19" s="5">
         <v>2</v>
@@ -831,9 +824,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -857,9 +850,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
@@ -883,9 +876,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1">
         <v>12</v>
@@ -909,9 +902,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -935,9 +928,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1">
         <v>10</v>
@@ -961,9 +954,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1">
         <v>18</v>
@@ -987,9 +980,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1">
         <v>20</v>
@@ -1013,9 +1006,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>150</v>
@@ -1039,12 +1032,12 @@
         <v>2</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F28"/>
       <c r="G28"/>
